--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -52,7 +52,7 @@
     <x:t>3500$</x:t>
   </x:si>
   <x:si>
-    <x:t>ibra</x:t>
+    <x:t>ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>osmanov</x:t>
